--- a/Codici/Rifiuti Provincia di Venezia.xlsx
+++ b/Codici/Rifiuti Provincia di Venezia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Covariate!$A$1:$S$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CovariateNormalizzate!$A$1:$S$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rifiuti!$A$1:$K$676</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1083,10 +1084,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K676"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B671" sqref="B671"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="H367" sqref="H367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>0.122462299</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>0.36818527099999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>0.51239386799999997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1281,7 @@
         <v>0.18610542899999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>8.1426910000000005E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>0.27114345099999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>7.8165223000000006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>7.8851158000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1454,7 +1456,7 @@
         <v>0.50073712999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>6.3045382999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1524,7 +1526,7 @@
         <v>0.36816126999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1561,7 @@
         <v>0.13652692299999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>0.10139416499999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>0.25507033000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1664,7 +1666,7 @@
         <v>8.8393012000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>4.7393559000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1734,7 +1736,7 @@
         <v>0.15436081400000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1769,7 +1771,7 @@
         <v>0.45571850800000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>0.20366165</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>0.131862127</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>0.149807738</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>0.17536411099999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>0.221300789</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>3.6664173000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2014,7 +2016,7 @@
         <v>0.18393106000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>8.3134305000000006E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>9.0426324000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>7.1606997000000006E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>0.23583722200000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>4.0521913999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>1.7283593E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2259,7 +2261,7 @@
         <v>0.23827373800000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>8.0262093000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2329,7 +2331,7 @@
         <v>0.39616486400000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2364,7 +2366,7 @@
         <v>0.16532639499999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2399,7 +2401,7 @@
         <v>0.21710832899999999</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>8.3410884000000005E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>4.2816365000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>0.14928711</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>0.19175922000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>0.14928711</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>0.13875906299999999</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>0.46713211799999999</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>0.48783032300000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2714,7 +2716,7 @@
         <v>0.52567809399999998</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>8.1815187999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2784,7 +2786,7 @@
         <v>0.41398295200000002</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2819,7 +2821,7 @@
         <v>0.10520391599999999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2854,7 +2856,7 @@
         <v>0.10473609</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2889,7 +2891,7 @@
         <v>0.44700865200000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>7.4031346999999997E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>0.353842555</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>0.12526543200000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -3029,7 +3031,7 @@
         <v>0.123785624</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3064,7 +3066,7 @@
         <v>0.62137713299999997</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3099,7 +3101,7 @@
         <v>0.117554568</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>6.2416605999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>0.19515542399999999</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -3204,7 +3206,7 @@
         <v>0.49662212300000003</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -3239,7 +3241,7 @@
         <v>0.21360668599999999</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>0.32509913200000001</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>0.306528684</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -3344,7 +3346,7 @@
         <v>0.22145261799999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>0.32905849199999998</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>3.7511668999999997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>0.37865218</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>0.115596132</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>0.11828655</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>0.17974218</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>0.33594523799999998</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>5.4952690999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -3659,7 +3661,7 @@
         <v>0.104667359</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -3694,7 +3696,7 @@
         <v>0.33306072399999997</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -3729,7 +3731,7 @@
         <v>0.10386758</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>0.43202888699999997</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>0.45332255199999999</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -3834,7 +3836,7 @@
         <v>0.18693939000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>0.11260728</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>2.7699042E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -3939,7 +3941,7 @@
         <v>0.190690849</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>0.36880358499999999</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>0.190690849</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>0.18092887499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>0.43004839900000003</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>0.470870067</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>0.52244232700000004</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -4184,7 +4186,7 @@
         <v>0.14304773000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>0.51634754999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>0.13307055000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>0.14211842799999999</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -4324,7 +4326,7 @@
         <v>0.45800417399999999</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>0.126322716</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>0.47061765300000002</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>9.4818517000000005E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -4464,7 +4466,7 @@
         <v>0.132366766</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>0.61912373799999998</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>0.135502079</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>5.7099168999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -4604,7 +4606,7 @@
         <v>0.283305943</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -4639,7 +4641,7 @@
         <v>0.50423274500000004</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>0.29909553500000002</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>0.40262019300000002</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -4744,7 +4746,7 @@
         <v>0.34547077100000001</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -4779,7 +4781,7 @@
         <v>0.53731321700000001</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -4814,7 +4816,7 @@
         <v>0.362241166</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>29</v>
       </c>
@@ -4849,7 +4851,7 @@
         <v>7.4420064999999994E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>0.37693579300000002</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -4919,7 +4921,7 @@
         <v>0.13668456900000001</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>0.13515643999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -4989,7 +4991,7 @@
         <v>0.29689051500000002</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -5024,7 +5026,7 @@
         <v>0.32832914600000002</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>0.178384296</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>0.14851332</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>37</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>0.27453117399999999</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>38</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>0.13774354999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>39</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>0.43369257</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>40</v>
       </c>
@@ -5234,7 +5236,7 @@
         <v>0.46554689599999999</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>0.14852559700000001</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>42</v>
       </c>
@@ -5304,7 +5306,7 @@
         <v>0.114753198</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>43</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>7.5802549999999996E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>44</v>
       </c>
@@ -5374,7 +5376,7 @@
         <v>0.20019590800000001</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>45</v>
       </c>
@@ -5409,7 +5411,7 @@
         <v>0.53112264399999998</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>68</v>
       </c>
@@ -5444,7 +5446,7 @@
         <v>0.20019590800000001</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -5479,7 +5481,7 @@
         <v>0.19510764799999999</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -5514,7 +5516,7 @@
         <v>0.41780950500000003</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -5549,7 +5551,7 @@
         <v>0.402032585</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -5584,7 +5586,7 @@
         <v>0.49088721099999999</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>0.104125041</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -5654,7 +5656,7 @@
         <v>0.59518184399999996</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>0.14149933200000001</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -5724,7 +5726,7 @@
         <v>0.17831973600000001</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>0.42915294500000001</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -5794,7 +5796,7 @@
         <v>8.7121820000000003E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>0.48914128899999998</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>0.110919927</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>0.175172039</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>0.60721489299999998</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>0.141504828</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -6004,7 +6006,7 @@
         <v>0.15643536799999999</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>0.29979615399999998</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -6074,7 +6076,7 @@
         <v>0.46904164700000001</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -6109,7 +6111,7 @@
         <v>0.36317312499999999</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>25</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>0.38606818700000001</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>0.33641498600000003</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>0.56342354100000003</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -6249,7 +6251,7 @@
         <v>0.362196931</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>29</v>
       </c>
@@ -6284,7 +6286,7 @@
         <v>0.53306279000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -6319,7 +6321,7 @@
         <v>0.39373042899999999</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -6354,7 +6356,7 @@
         <v>0.14361966100000001</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -6389,7 +6391,7 @@
         <v>0.166926625</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>33</v>
       </c>
@@ -6424,7 +6426,7 @@
         <v>0.29043287600000001</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>0.29616573800000001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>35</v>
       </c>
@@ -6494,7 +6496,7 @@
         <v>0.24935442899999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>0.17795175699999999</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -6564,7 +6566,7 @@
         <v>0.285182245</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>38</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>0.137121834</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -6634,7 +6636,7 @@
         <v>0.42839990700000002</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>40</v>
       </c>
@@ -6669,7 +6671,7 @@
         <v>0.41269607400000002</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>41</v>
       </c>
@@ -6704,7 +6706,7 @@
         <v>0.28385099499999999</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -6739,7 +6741,7 @@
         <v>0.14150320599999999</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>43</v>
       </c>
@@ -6774,7 +6776,7 @@
         <v>0.231580648</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>44</v>
       </c>
@@ -6809,7 +6811,7 @@
         <v>0.18626820899999999</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -6844,7 +6846,7 @@
         <v>0.52745786100000003</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>68</v>
       </c>
@@ -6879,7 +6881,7 @@
         <v>0.18626820899999999</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -6914,7 +6916,7 @@
         <v>0.19081202799999999</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>0.55226559600000003</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -6984,7 +6986,7 @@
         <v>0.43908259599999999</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -7019,7 +7021,7 @@
         <v>0.55085360900000002</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>0.17907927800000001</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -7089,7 +7091,7 @@
         <v>0.63080118200000002</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -7124,7 +7126,7 @@
         <v>0.15276519499999999</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -7159,7 +7161,7 @@
         <v>0.21059486899999999</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>0.42910947700000002</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>0.2236967</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -7264,7 +7266,7 @@
         <v>0.54920922900000002</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -7299,7 +7301,7 @@
         <v>0.66008893700000004</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>18</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>0.195041461</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -7369,7 +7371,7 @@
         <v>0.55370634900000004</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>0.18955329000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -7439,7 +7441,7 @@
         <v>0.17492845600000001</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>0.33682454699999997</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -7509,7 +7511,7 @@
         <v>0.480798948</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>24</v>
       </c>
@@ -7544,7 +7546,7 @@
         <v>0.325544151</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>25</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>0.38934317200000002</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>0.34411958500000001</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>27</v>
       </c>
@@ -7649,7 +7651,7 @@
         <v>0.55509139500000004</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>28</v>
       </c>
@@ -7684,7 +7686,7 @@
         <v>0.38630481</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>29</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>0.60864226200000004</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>30</v>
       </c>
@@ -7754,7 +7756,7 @@
         <v>0.489553619</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>31</v>
       </c>
@@ -7789,7 +7791,7 @@
         <v>0.158691109</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -7824,7 +7826,7 @@
         <v>0.165715117</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>0.260591193</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -7894,7 +7896,7 @@
         <v>0.44639670199999998</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>35</v>
       </c>
@@ -7929,7 +7931,7 @@
         <v>0.298183472</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -7964,7 +7966,7 @@
         <v>0.24997752100000001</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>37</v>
       </c>
@@ -7999,7 +8001,7 @@
         <v>0.299420191</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>38</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>0.17966095200000001</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>39</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>0.438119545</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>40</v>
       </c>
@@ -8104,7 +8106,7 @@
         <v>0.43253097899999998</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>41</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>0.57496390900000005</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>42</v>
       </c>
@@ -8174,7 +8176,7 @@
         <v>0.1903591</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -8209,7 +8211,7 @@
         <v>0.245146269</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>44</v>
       </c>
@@ -8244,7 +8246,7 @@
         <v>0.20713673699999999</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>45</v>
       </c>
@@ -8279,7 +8281,7 @@
         <v>0.51004491399999996</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>68</v>
       </c>
@@ -8314,7 +8316,7 @@
         <v>0.20713673699999999</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>0.184271343</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>0.59589401200000003</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -8419,7 +8421,7 @@
         <v>0.58172495899999999</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>0.55522587300000004</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -8489,7 +8491,7 @@
         <v>0.18297047299999999</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -8524,7 +8526,7 @@
         <v>0.70723839300000002</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -8559,7 +8561,7 @@
         <v>0.22788599500000001</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -8594,7 +8596,7 @@
         <v>0.20323780899999999</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>0.43980637700000003</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>0.22873038900000001</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -8699,7 +8701,7 @@
         <v>0.56113817600000004</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -8734,7 +8736,7 @@
         <v>0.63868861600000004</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>18</v>
       </c>
@@ -8769,7 +8771,7 @@
         <v>0.35708965500000001</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -8804,7 +8806,7 @@
         <v>0.59779858799999996</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -8839,7 +8841,7 @@
         <v>0.25783212999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -8874,7 +8876,7 @@
         <v>0.20490259899999999</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>22</v>
       </c>
@@ -8909,7 +8911,7 @@
         <v>0.32796083799999998</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -8944,7 +8946,7 @@
         <v>0.47261211199999997</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -8979,7 +8981,7 @@
         <v>0.381610479</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>25</v>
       </c>
@@ -9014,7 +9016,7 @@
         <v>0.39903393100000001</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>26</v>
       </c>
@@ -9049,7 +9051,7 @@
         <v>0.36743431999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>27</v>
       </c>
@@ -9084,7 +9086,7 @@
         <v>0.600277642</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>28</v>
       </c>
@@ -9119,7 +9121,7 @@
         <v>0.41671651700000001</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>29</v>
       </c>
@@ -9154,7 +9156,7 @@
         <v>0.60331953100000002</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>30</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>0.56781251600000004</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>31</v>
       </c>
@@ -9224,7 +9226,7 @@
         <v>0.18220146200000001</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>32</v>
       </c>
@@ -9259,7 +9261,7 @@
         <v>0.22543962000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>33</v>
       </c>
@@ -9294,7 +9296,7 @@
         <v>0.14477193399999999</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>34</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>0.62078943200000003</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>35</v>
       </c>
@@ -9364,7 +9366,7 @@
         <v>0.34837377200000003</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>36</v>
       </c>
@@ -9399,7 +9401,7 @@
         <v>0.36695348900000002</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>37</v>
       </c>
@@ -9434,7 +9436,7 @@
         <v>0.305263697</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>38</v>
       </c>
@@ -9469,7 +9471,7 @@
         <v>0.25637569700000001</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>39</v>
       </c>
@@ -9504,7 +9506,7 @@
         <v>0.48833233300000001</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>40</v>
       </c>
@@ -9539,7 +9541,7 @@
         <v>0.44496720000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>41</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>0.58407261099999996</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>42</v>
       </c>
@@ -9609,7 +9611,7 @@
         <v>0.17231761600000001</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>43</v>
       </c>
@@ -9644,7 +9646,7 @@
         <v>0.46226038200000003</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>44</v>
       </c>
@@ -9679,7 +9681,7 @@
         <v>0.17895054399999999</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>45</v>
       </c>
@@ -9714,7 +9716,7 @@
         <v>0.494723415</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>68</v>
       </c>
@@ -9749,7 +9751,7 @@
         <v>0.35821520699999998</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -9784,7 +9786,7 @@
         <v>0.32729525900000001</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -9819,7 +9821,7 @@
         <v>0.57945464700000004</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -9854,7 +9856,7 @@
         <v>0.55494039100000003</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -9889,7 +9891,7 @@
         <v>0.53998836100000003</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -9924,7 +9926,7 @@
         <v>0.23204660399999999</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -9959,7 +9961,7 @@
         <v>0.71341059600000001</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>12</v>
       </c>
@@ -9994,7 +9996,7 @@
         <v>0.27705112500000001</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -10029,7 +10031,7 @@
         <v>0.21413274099999999</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -10064,7 +10066,7 @@
         <v>0.44687976400000001</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -10099,7 +10101,7 @@
         <v>0.266556825</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -10134,7 +10136,7 @@
         <v>0.56383879599999998</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -10169,7 +10171,7 @@
         <v>0.67047663700000004</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>18</v>
       </c>
@@ -10204,7 +10206,7 @@
         <v>0.38902083999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -10239,7 +10241,7 @@
         <v>0.608169564</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -10274,7 +10276,7 @@
         <v>0.3414779</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>21</v>
       </c>
@@ -10309,7 +10311,7 @@
         <v>0.23797542599999999</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>22</v>
       </c>
@@ -10344,7 +10346,7 @@
         <v>0.30189774800000002</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -10379,7 +10381,7 @@
         <v>0.47528247299999998</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -10414,7 +10416,7 @@
         <v>0.48524971700000002</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -10449,7 +10451,7 @@
         <v>0.38000146299999998</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>26</v>
       </c>
@@ -10484,7 +10486,7 @@
         <v>0.34963156299999998</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>27</v>
       </c>
@@ -10519,7 +10521,7 @@
         <v>0.61834104700000003</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>28</v>
       </c>
@@ -10554,7 +10556,7 @@
         <v>0.39806301799999999</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>29</v>
       </c>
@@ -10589,7 +10591,7 @@
         <v>0.61728795199999997</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>30</v>
       </c>
@@ -10624,7 +10626,7 @@
         <v>0.620696103</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>31</v>
       </c>
@@ -10659,7 +10661,7 @@
         <v>0.240134927</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>32</v>
       </c>
@@ -10694,7 +10696,7 @@
         <v>0.38838345000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>33</v>
       </c>
@@ -10729,7 +10731,7 @@
         <v>0.31154477400000002</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>34</v>
       </c>
@@ -10764,7 +10766,7 @@
         <v>0.62837892299999998</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>35</v>
       </c>
@@ -10799,7 +10801,7 @@
         <v>0.364474935</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>36</v>
       </c>
@@ -10834,7 +10836,7 @@
         <v>0.39498765899999999</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>37</v>
       </c>
@@ -10869,7 +10871,7 @@
         <v>0.31070210199999998</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>38</v>
       </c>
@@ -10904,7 +10906,7 @@
         <v>0.30485768000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>39</v>
       </c>
@@ -10939,7 +10941,7 @@
         <v>0.46967719099999999</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>40</v>
       </c>
@@ -10974,7 +10976,7 @@
         <v>0.44772321900000001</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>41</v>
       </c>
@@ -11009,7 +11011,7 @@
         <v>0.61769208900000006</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>42</v>
       </c>
@@ -11044,7 +11046,7 @@
         <v>0.25879785599999999</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>43</v>
       </c>
@@ -11079,7 +11081,7 @@
         <v>0.424524709</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>44</v>
       </c>
@@ -11114,7 +11116,7 @@
         <v>0.16664714</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>45</v>
       </c>
@@ -11149,7 +11151,7 @@
         <v>0.50760897699999996</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>68</v>
       </c>
@@ -11184,7 +11186,7 @@
         <v>0.34722905999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -11219,7 +11221,7 @@
         <v>0.352815082</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -11254,7 +11256,7 @@
         <v>0.55510764499999998</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -11289,7 +11291,7 @@
         <v>0.55649415899999999</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -11324,7 +11326,7 @@
         <v>0.54659001600000001</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>0.225753066</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>0.70970622299999997</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -11429,7 +11431,7 @@
         <v>0.32400314200000002</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>13</v>
       </c>
@@ -11464,7 +11466,7 @@
         <v>0.23021522699999999</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>14</v>
       </c>
@@ -11499,7 +11501,7 @@
         <v>0.470182145</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -11534,7 +11536,7 @@
         <v>0.266494705</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>16</v>
       </c>
@@ -11569,7 +11571,7 @@
         <v>0.58750749199999996</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -11604,7 +11606,7 @@
         <v>0.674294273</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>18</v>
       </c>
@@ -11639,7 +11641,7 @@
         <v>0.369771391</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>19</v>
       </c>
@@ -11674,7 +11676,7 @@
         <v>0.61937256500000004</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -11709,7 +11711,7 @@
         <v>0.34400885199999998</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>21</v>
       </c>
@@ -11744,7 +11746,7 @@
         <v>0.26371186800000002</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>22</v>
       </c>
@@ -11779,7 +11781,7 @@
         <v>0.37028419699999998</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>23</v>
       </c>
@@ -11814,7 +11816,7 @@
         <v>0.471268717</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -11849,7 +11851,7 @@
         <v>0.48681665200000002</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>25</v>
       </c>
@@ -11884,7 +11886,7 @@
         <v>0.38523365900000001</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>26</v>
       </c>
@@ -11919,7 +11921,7 @@
         <v>0.34575859799999997</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>27</v>
       </c>
@@ -11954,7 +11956,7 @@
         <v>0.63244879300000001</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>28</v>
       </c>
@@ -11989,7 +11991,7 @@
         <v>0.36819327400000001</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>29</v>
       </c>
@@ -12024,7 +12026,7 @@
         <v>0.63180219900000001</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>30</v>
       </c>
@@ -12059,7 +12061,7 @@
         <v>0.622354713</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>31</v>
       </c>
@@ -12094,7 +12096,7 @@
         <v>0.253506499</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>32</v>
       </c>
@@ -12129,7 +12131,7 @@
         <v>0.37955366299999999</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>33</v>
       </c>
@@ -12164,7 +12166,7 @@
         <v>0.40435831300000002</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>34</v>
       </c>
@@ -12199,7 +12201,7 @@
         <v>0.61627580699999995</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>35</v>
       </c>
@@ -12234,7 +12236,7 @@
         <v>0.43493864500000001</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>36</v>
       </c>
@@ -12269,7 +12271,7 @@
         <v>0.31167937400000001</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>37</v>
       </c>
@@ -12304,7 +12306,7 @@
         <v>0.31599437200000002</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>38</v>
       </c>
@@ -12339,7 +12341,7 @@
         <v>0.35564941</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>39</v>
       </c>
@@ -12374,7 +12376,7 @@
         <v>0.46564763300000001</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>40</v>
       </c>
@@ -12409,7 +12411,7 @@
         <v>0.44004390300000001</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>41</v>
       </c>
@@ -12444,7 +12446,7 @@
         <v>0.63179974800000005</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>42</v>
       </c>
@@ -12479,7 +12481,7 @@
         <v>0.31478045199999999</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>43</v>
       </c>
@@ -12514,7 +12516,7 @@
         <v>0.48740924800000002</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -12549,7 +12551,7 @@
         <v>0.17007892899999999</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>45</v>
       </c>
@@ -12584,7 +12586,7 @@
         <v>0.49327531600000002</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>68</v>
       </c>
@@ -14054,7 +14056,7 @@
         <v>0.364724565</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>6</v>
       </c>
@@ -14089,7 +14091,7 @@
         <v>0.32648350199999998</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>7</v>
       </c>
@@ -14124,7 +14126,7 @@
         <v>0.60357665400000005</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>8</v>
       </c>
@@ -14159,7 +14161,7 @@
         <v>0.560468678</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -14194,7 +14196,7 @@
         <v>0.55240022600000005</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>10</v>
       </c>
@@ -14229,7 +14231,7 @@
         <v>0.199324733</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>11</v>
       </c>
@@ -14264,7 +14266,7 @@
         <v>0.78954312599999998</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -14299,7 +14301,7 @@
         <v>0.768539262</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>13</v>
       </c>
@@ -14334,7 +14336,7 @@
         <v>0.26382154499999999</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>14</v>
       </c>
@@ -14369,7 +14371,7 @@
         <v>0.47480597499999999</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>15</v>
       </c>
@@ -14404,7 +14406,7 @@
         <v>0.56786976600000005</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>16</v>
       </c>
@@ -14439,7 +14441,7 @@
         <v>0.56739162499999996</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -14474,7 +14476,7 @@
         <v>0.69695812800000001</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -14509,7 +14511,7 @@
         <v>0.40817084199999998</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>19</v>
       </c>
@@ -14544,7 +14546,7 @@
         <v>0.60151249900000003</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>20</v>
       </c>
@@ -14579,7 +14581,7 @@
         <v>0.41674138700000002</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>21</v>
       </c>
@@ -14614,7 +14616,7 @@
         <v>0.28293807199999998</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>22</v>
       </c>
@@ -14649,7 +14651,7 @@
         <v>0.40163310099999999</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>23</v>
       </c>
@@ -14684,7 +14686,7 @@
         <v>0.48140040200000001</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>24</v>
       </c>
@@ -14719,7 +14721,7 @@
         <v>0.48925017199999998</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>25</v>
       </c>
@@ -14754,7 +14756,7 @@
         <v>0.39179367999999998</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>26</v>
       </c>
@@ -14789,7 +14791,7 @@
         <v>0.35911330699999999</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>27</v>
       </c>
@@ -14824,7 +14826,7 @@
         <v>0.68938747600000005</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>28</v>
       </c>
@@ -14859,7 +14861,7 @@
         <v>0.43632861000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>29</v>
       </c>
@@ -14894,7 +14896,7 @@
         <v>0.70489766799999998</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>30</v>
       </c>
@@ -14929,7 +14931,7 @@
         <v>0.70405231999999995</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>31</v>
       </c>
@@ -14964,7 +14966,7 @@
         <v>0.30584328199999999</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>32</v>
       </c>
@@ -14999,7 +15001,7 @@
         <v>0.56907145699999995</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>33</v>
       </c>
@@ -15034,7 +15036,7 @@
         <v>0.42503242400000002</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>34</v>
       </c>
@@ -15069,7 +15071,7 @@
         <v>0.608301957</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>35</v>
       </c>
@@ -15104,7 +15106,7 @@
         <v>0.66869136900000004</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>36</v>
       </c>
@@ -15139,7 +15141,7 @@
         <v>0.31392313100000002</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>37</v>
       </c>
@@ -15174,7 +15176,7 @@
         <v>0.36251892499999999</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>38</v>
       </c>
@@ -15209,7 +15211,7 @@
         <v>0.321194125</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>39</v>
       </c>
@@ -15244,7 +15246,7 @@
         <v>0.43549448699999999</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>40</v>
       </c>
@@ -15279,7 +15281,7 @@
         <v>0.43195810299999998</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>41</v>
       </c>
@@ -15314,7 +15316,7 @@
         <v>0.59933470700000002</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>42</v>
       </c>
@@ -15349,7 +15351,7 @@
         <v>0.62193335800000005</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>43</v>
       </c>
@@ -15384,7 +15386,7 @@
         <v>0.67805004199999996</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>44</v>
       </c>
@@ -15419,7 +15421,7 @@
         <v>0.23963574300000001</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>45</v>
       </c>
@@ -15454,7 +15456,7 @@
         <v>0.51260916000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>68</v>
       </c>
@@ -15489,7 +15491,7 @@
         <v>0.31800072600000001</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -15524,7 +15526,7 @@
         <v>0.37844013999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -15559,7 +15561,7 @@
         <v>0.60512936100000003</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -15594,7 +15596,7 @@
         <v>0.57589693600000003</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -15629,7 +15631,7 @@
         <v>0.56735674999999997</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>10</v>
       </c>
@@ -15664,7 +15666,7 @@
         <v>0.2515386</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>11</v>
       </c>
@@ -15699,7 +15701,7 @@
         <v>0.801128171</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>12</v>
       </c>
@@ -15734,7 +15736,7 @@
         <v>0.75889475799999995</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>13</v>
       </c>
@@ -15769,7 +15771,7 @@
         <v>0.70044122799999997</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>14</v>
       </c>
@@ -15804,7 +15806,7 @@
         <v>0.48451122099999999</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>15</v>
       </c>
@@ -15839,7 +15841,7 @@
         <v>0.59315382299999997</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>16</v>
       </c>
@@ -15874,7 +15876,7 @@
         <v>0.58483191400000001</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>17</v>
       </c>
@@ -15909,7 +15911,7 @@
         <v>0.68127494300000002</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>18</v>
       </c>
@@ -15944,7 +15946,7 @@
         <v>0.45698460299999999</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>19</v>
       </c>
@@ -15979,7 +15981,7 @@
         <v>0.606422342</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>20</v>
       </c>
@@ -16014,7 +16016,7 @@
         <v>0.76607787599999999</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>21</v>
       </c>
@@ -16049,7 +16051,7 @@
         <v>0.30059987100000002</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>22</v>
       </c>
@@ -16084,7 +16086,7 @@
         <v>0.41339300400000001</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>23</v>
       </c>
@@ -16119,7 +16121,7 @@
         <v>0.47742659100000001</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>24</v>
       </c>
@@ -16154,7 +16156,7 @@
         <v>0.49733890800000002</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>25</v>
       </c>
@@ -16189,7 +16191,7 @@
         <v>0.38333528900000002</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>26</v>
       </c>
@@ -16224,7 +16226,7 @@
         <v>0.36951012100000002</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>27</v>
       </c>
@@ -16259,7 +16261,7 @@
         <v>0.67799337299999995</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>28</v>
       </c>
@@ -16294,7 +16296,7 @@
         <v>0.42474906000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>29</v>
       </c>
@@ -16329,7 +16331,7 @@
         <v>0.69920992500000001</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>30</v>
       </c>
@@ -16364,7 +16366,7 @@
         <v>0.71453799699999998</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>31</v>
       </c>
@@ -16399,7 +16401,7 @@
         <v>0.37302979400000003</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>32</v>
       </c>
@@ -16434,7 +16436,7 @@
         <v>0.76413069099999997</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>33</v>
       </c>
@@ -16469,7 +16471,7 @@
         <v>0.42704521899999998</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>34</v>
       </c>
@@ -16504,7 +16506,7 @@
         <v>0.60365192400000001</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>35</v>
       </c>
@@ -16539,7 +16541,7 @@
         <v>0.67555961399999997</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>36</v>
       </c>
@@ -16574,7 +16576,7 @@
         <v>0.33586813799999998</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>37</v>
       </c>
@@ -16609,7 +16611,7 @@
         <v>0.37379216300000001</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>38</v>
       </c>
@@ -16644,7 +16646,7 @@
         <v>0.58275586499999998</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>39</v>
       </c>
@@ -16679,7 +16681,7 @@
         <v>0.44530067299999998</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>40</v>
       </c>
@@ -16714,7 +16716,7 @@
         <v>0.43885240800000003</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>41</v>
       </c>
@@ -16749,7 +16751,7 @@
         <v>0.61326836699999998</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>42</v>
       </c>
@@ -16784,7 +16786,7 @@
         <v>0.74049021299999995</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>43</v>
       </c>
@@ -16819,7 +16821,7 @@
         <v>0.71766199500000005</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>44</v>
       </c>
@@ -16854,7 +16856,7 @@
         <v>0.273141203</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>45</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>0.51585987200000005</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>68</v>
       </c>
@@ -16924,7 +16926,7 @@
         <v>0.32735811300000001</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>6</v>
       </c>
@@ -16959,7 +16961,7 @@
         <v>0.74814752900000003</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>7</v>
       </c>
@@ -16994,7 +16996,7 @@
         <v>0.64403299300000005</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>8</v>
       </c>
@@ -17029,7 +17031,7 @@
         <v>0.60159607800000003</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>9</v>
       </c>
@@ -17064,7 +17066,7 @@
         <v>0.58363148499999995</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>10</v>
       </c>
@@ -17099,7 +17101,7 @@
         <v>0.32318222800000002</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>11</v>
       </c>
@@ -17134,7 +17136,7 @@
         <v>0.80312922799999997</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>12</v>
       </c>
@@ -17169,7 +17171,7 @@
         <v>0.77119278800000002</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -17204,7 +17206,7 @@
         <v>0.75333483700000003</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>14</v>
       </c>
@@ -17239,7 +17241,7 @@
         <v>0.495223617</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>15</v>
       </c>
@@ -17274,7 +17276,7 @@
         <v>0.60478779900000001</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>16</v>
       </c>
@@ -17309,7 +17311,7 @@
         <v>0.59707597700000004</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>17</v>
       </c>
@@ -17344,7 +17346,7 @@
         <v>0.69629408699999995</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>18</v>
       </c>
@@ -17379,7 +17381,7 @@
         <v>0.73364261399999997</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>19</v>
       </c>
@@ -17414,7 +17416,7 @@
         <v>0.617860293</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>20</v>
       </c>
@@ -17449,7 +17451,7 @@
         <v>0.77255243699999998</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>21</v>
       </c>
@@ -17484,7 +17486,7 @@
         <v>0.33497798600000001</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>22</v>
       </c>
@@ -17519,7 +17521,7 @@
         <v>0.49536794200000001</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>23</v>
       </c>
@@ -17554,7 +17556,7 @@
         <v>0.49814340499999998</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>24</v>
       </c>
@@ -17589,7 +17591,7 @@
         <v>0.51978970000000002</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>25</v>
       </c>
@@ -17624,7 +17626,7 @@
         <v>0.40330287500000001</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>26</v>
       </c>
@@ -17659,7 +17661,7 @@
         <v>0.39787839600000002</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>27</v>
       </c>
@@ -17694,7 +17696,7 @@
         <v>0.69078190399999995</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>28</v>
       </c>
@@ -17729,7 +17731,7 @@
         <v>0.441221268</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>29</v>
       </c>
@@ -17764,7 +17766,7 @@
         <v>0.71200325200000003</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>30</v>
       </c>
@@ -17799,7 +17801,7 @@
         <v>0.73036973199999999</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>31</v>
       </c>
@@ -17834,7 +17836,7 @@
         <v>0.47686230299999999</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>32</v>
       </c>
@@ -17869,7 +17871,7 @@
         <v>0.75775485099999995</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>33</v>
       </c>
@@ -17904,7 +17906,7 @@
         <v>0.52413224300000005</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>34</v>
       </c>
@@ -17939,7 +17941,7 @@
         <v>0.60031509299999997</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>35</v>
       </c>
@@ -17974,7 +17976,7 @@
         <v>0.69065109899999999</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>36</v>
       </c>
@@ -18009,7 +18011,7 @@
         <v>0.52457995999999996</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>37</v>
       </c>
@@ -18044,7 +18046,7 @@
         <v>0.395339359</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>38</v>
       </c>
@@ -18079,7 +18081,7 @@
         <v>0.74962693999999996</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>39</v>
       </c>
@@ -18114,7 +18116,7 @@
         <v>0.473961189</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>40</v>
       </c>
@@ -18149,7 +18151,7 @@
         <v>0.45160657500000001</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>41</v>
       </c>
@@ -18184,7 +18186,7 @@
         <v>0.62156189299999998</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>42</v>
       </c>
@@ -18219,7 +18221,7 @@
         <v>0.75126567799999999</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>43</v>
       </c>
@@ -18254,7 +18256,7 @@
         <v>0.71343910700000002</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>44</v>
       </c>
@@ -18289,7 +18291,7 @@
         <v>0.31574339699999998</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>45</v>
       </c>
@@ -18324,7 +18326,7 @@
         <v>0.52424353599999995</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>68</v>
       </c>
@@ -18359,7 +18361,7 @@
         <v>0.29099958300000001</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>6</v>
       </c>
@@ -18394,7 +18396,7 @@
         <v>0.74042883299999995</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -18429,7 +18431,7 @@
         <v>0.62384019800000001</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>8</v>
       </c>
@@ -18464,7 +18466,7 @@
         <v>0.61298121299999997</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -18499,7 +18501,7 @@
         <v>0.59806962600000002</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>10</v>
       </c>
@@ -18534,7 +18536,7 @@
         <v>0.41914195599999998</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -18569,7 +18571,7 @@
         <v>0.80659256499999998</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>12</v>
       </c>
@@ -18604,7 +18606,7 @@
         <v>0.76420217599999996</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>13</v>
       </c>
@@ -18639,7 +18641,7 @@
         <v>0.72639218100000003</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -18674,7 +18676,7 @@
         <v>0.51828792999999995</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>15</v>
       </c>
@@ -18709,7 +18711,7 @@
         <v>0.62483209100000003</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>16</v>
       </c>
@@ -18744,7 +18746,7 @@
         <v>0.63909912599999996</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>17</v>
       </c>
@@ -18779,7 +18781,7 @@
         <v>0.71364681500000005</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>18</v>
       </c>
@@ -18814,7 +18816,7 @@
         <v>0.73799328500000005</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>19</v>
       </c>
@@ -18849,7 +18851,7 @@
         <v>0.62425542300000003</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>20</v>
       </c>
@@ -18884,7 +18886,7 @@
         <v>0.749359836</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>21</v>
       </c>
@@ -18919,7 +18921,7 @@
         <v>0.385809982</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>22</v>
       </c>
@@ -18954,7 +18956,7 @@
         <v>0.70240848499999997</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>23</v>
       </c>
@@ -18989,7 +18991,7 @@
         <v>0.50862674799999996</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>24</v>
       </c>
@@ -19024,7 +19026,7 @@
         <v>0.53524122699999999</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>25</v>
       </c>
@@ -19059,7 +19061,7 @@
         <v>0.41436506699999998</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>26</v>
       </c>
@@ -19094,7 +19096,7 @@
         <v>0.41389425099999999</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>27</v>
       </c>
@@ -19129,7 +19131,7 @@
         <v>0.69978416399999999</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>28</v>
       </c>
@@ -19164,7 +19166,7 @@
         <v>0.44658925199999999</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>29</v>
       </c>
@@ -19199,7 +19201,7 @@
         <v>0.69656554400000004</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>30</v>
       </c>
@@ -19234,7 +19236,7 @@
         <v>0.70121627600000003</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>31</v>
       </c>
@@ -19269,7 +19271,7 @@
         <v>0.71196132000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>32</v>
       </c>
@@ -19304,7 +19306,7 @@
         <v>0.76320426600000002</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>33</v>
       </c>
@@ -19339,7 +19341,7 @@
         <v>0.76658901300000004</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>34</v>
       </c>
@@ -19374,7 +19376,7 @@
         <v>0.61900884700000003</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>35</v>
       </c>
@@ -19409,7 +19411,7 @@
         <v>0.710249146</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>36</v>
       </c>
@@ -19444,7 +19446,7 @@
         <v>0.55168168699999998</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>37</v>
       </c>
@@ -19479,7 +19481,7 @@
         <v>0.41180894200000001</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>38</v>
       </c>
@@ -19514,7 +19516,7 @@
         <v>0.72636443399999995</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>39</v>
       </c>
@@ -19549,7 +19551,7 @@
         <v>0.48094067400000001</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>40</v>
       </c>
@@ -19584,7 +19586,7 @@
         <v>0.46541339900000001</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>41</v>
       </c>
@@ -19619,7 +19621,7 @@
         <v>0.64064805199999997</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>42</v>
       </c>
@@ -19654,7 +19656,7 @@
         <v>0.72481810499999999</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>43</v>
       </c>
@@ -19689,7 +19691,7 @@
         <v>0.70998538</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>44</v>
       </c>
@@ -19724,7 +19726,7 @@
         <v>0.310398224</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>45</v>
       </c>
@@ -19759,7 +19761,7 @@
         <v>0.53361797399999999</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>68</v>
       </c>
@@ -19794,7 +19796,7 @@
         <v>0.31655145000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>6</v>
       </c>
@@ -19829,7 +19831,7 @@
         <v>0.73559397900000001</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -19864,7 +19866,7 @@
         <v>0.64224722599999995</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>8</v>
       </c>
@@ -19899,7 +19901,7 @@
         <v>0.62942611299999995</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>9</v>
       </c>
@@ -19934,7 +19936,7 @@
         <v>0.631491947</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>10</v>
       </c>
@@ -19969,7 +19971,7 @@
         <v>0.43327188799999999</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>11</v>
       </c>
@@ -20004,7 +20006,7 @@
         <v>0.81248140300000005</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>12</v>
       </c>
@@ -20039,7 +20041,7 @@
         <v>0.78200193299999998</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>13</v>
       </c>
@@ -20074,7 +20076,7 @@
         <v>0.71217791900000005</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>14</v>
       </c>
@@ -20109,7 +20111,7 @@
         <v>0.54254152200000005</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>15</v>
       </c>
@@ -20144,7 +20146,7 @@
         <v>0.63536112600000005</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>16</v>
       </c>
@@ -20179,7 +20181,7 @@
         <v>0.62003078300000003</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>17</v>
       </c>
@@ -20214,7 +20216,7 @@
         <v>0.70909519200000004</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>18</v>
       </c>
@@ -20249,7 +20251,7 @@
         <v>0.74421765699999998</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>19</v>
       </c>
@@ -20284,7 +20286,7 @@
         <v>0.66441814799999999</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>20</v>
       </c>
@@ -20319,7 +20321,7 @@
         <v>0.75479540899999997</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>21</v>
       </c>
@@ -20354,7 +20356,7 @@
         <v>0.413178031</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>22</v>
       </c>
@@ -20389,7 +20391,7 @@
         <v>0.69576269599999996</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>23</v>
       </c>
@@ -20424,7 +20426,7 @@
         <v>0.50938561400000004</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>24</v>
       </c>
@@ -20459,7 +20461,7 @@
         <v>0.51102815800000001</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>25</v>
       </c>
@@ -20494,7 +20496,7 @@
         <v>0.45338262499999998</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>26</v>
       </c>
@@ -20529,7 +20531,7 @@
         <v>0.43346884000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>27</v>
       </c>
@@ -20564,7 +20566,7 @@
         <v>0.69841978299999996</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>28</v>
       </c>
@@ -20599,7 +20601,7 @@
         <v>0.46912432599999998</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>29</v>
       </c>
@@ -20634,7 +20636,7 @@
         <v>0.68545770100000003</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>30</v>
       </c>
@@ -20669,7 +20671,7 @@
         <v>0.70986584399999997</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>31</v>
       </c>
@@ -20704,7 +20706,7 @@
         <v>0.70879747999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>32</v>
       </c>
@@ -20739,7 +20741,7 @@
         <v>0.73820467099999998</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>33</v>
       </c>
@@ -20774,7 +20776,7 @@
         <v>0.701045531</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>34</v>
       </c>
@@ -20809,7 +20811,7 @@
         <v>0.62466721700000005</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>35</v>
       </c>
@@ -20844,7 +20846,7 @@
         <v>0.71206108800000001</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>36</v>
       </c>
@@ -20879,7 +20881,7 @@
         <v>0.544150719</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>37</v>
       </c>
@@ -20914,7 +20916,7 @@
         <v>0.44194501200000003</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>38</v>
       </c>
@@ -20949,7 +20951,7 @@
         <v>0.71604116299999998</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>39</v>
       </c>
@@ -20984,7 +20986,7 @@
         <v>0.485156117</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>40</v>
       </c>
@@ -21019,7 +21021,7 @@
         <v>0.46788116699999999</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>41</v>
       </c>
@@ -21054,7 +21056,7 @@
         <v>0.62832463199999999</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>42</v>
       </c>
@@ -21089,7 +21091,7 @@
         <v>0.71738640399999998</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>43</v>
       </c>
@@ -21124,7 +21126,7 @@
         <v>0.72893302800000004</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>44</v>
       </c>
@@ -21159,7 +21161,7 @@
         <v>0.33485460299999997</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>45</v>
       </c>
@@ -21194,7 +21196,7 @@
         <v>0.52821210399999996</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>68</v>
       </c>
@@ -21229,7 +21231,7 @@
         <v>0.62734780300000004</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>6</v>
       </c>
@@ -21264,7 +21266,7 @@
         <v>0.74289755999999996</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -21299,7 +21301,7 @@
         <v>0.66276677900000003</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>8</v>
       </c>
@@ -21334,7 +21336,7 @@
         <v>0.64291599300000002</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>9</v>
       </c>
@@ -21369,7 +21371,7 @@
         <v>0.63142001000000003</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>10</v>
       </c>
@@ -21404,7 +21406,7 @@
         <v>0.43853439799999999</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>11</v>
       </c>
@@ -21439,7 +21441,7 @@
         <v>0.80162555099999999</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>12</v>
       </c>
@@ -21474,7 +21476,7 @@
         <v>0.77698871000000003</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>13</v>
       </c>
@@ -21509,7 +21511,7 @@
         <v>0.71565224800000005</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>14</v>
       </c>
@@ -21544,7 +21546,7 @@
         <v>0.55850664000000005</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>15</v>
       </c>
@@ -21579,7 +21581,7 @@
         <v>0.63804034799999998</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>16</v>
       </c>
@@ -21614,7 +21616,7 @@
         <v>0.62820678500000005</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>17</v>
       </c>
@@ -21649,7 +21651,7 @@
         <v>0.71405668200000005</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>18</v>
       </c>
@@ -21684,7 +21686,7 @@
         <v>0.74156686500000002</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>19</v>
       </c>
@@ -21719,7 +21721,7 @@
         <v>0.68942363200000001</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>20</v>
       </c>
@@ -21754,7 +21756,7 @@
         <v>0.76978369499999999</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>21</v>
       </c>
@@ -21789,7 +21791,7 @@
         <v>0.42282479499999998</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>22</v>
       </c>
@@ -21824,7 +21826,7 @@
         <v>0.69928384700000001</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>23</v>
       </c>
@@ -21859,7 +21861,7 @@
         <v>0.598203339</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>24</v>
       </c>
@@ -21894,7 +21896,7 @@
         <v>0.50214859599999995</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>25</v>
       </c>
@@ -21929,7 +21931,7 @@
         <v>0.50805591000000005</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>26</v>
       </c>
@@ -21964,7 +21966,7 @@
         <v>0.48870765999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>27</v>
       </c>
@@ -21999,7 +22001,7 @@
         <v>0.687135838</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>28</v>
       </c>
@@ -22034,7 +22036,7 @@
         <v>0.51376455399999998</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>29</v>
       </c>
@@ -22069,7 +22071,7 @@
         <v>0.67368972999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>30</v>
       </c>
@@ -22104,7 +22106,7 @@
         <v>0.716625022</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>31</v>
       </c>
@@ -22139,7 +22141,7 @@
         <v>0.70807719700000005</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>32</v>
       </c>
@@ -22174,7 +22176,7 @@
         <v>0.74589158899999997</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>33</v>
       </c>
@@ -22209,7 +22211,7 @@
         <v>0.71831854900000003</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>34</v>
       </c>
@@ -22244,7 +22246,7 @@
         <v>0.65224726899999996</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>35</v>
       </c>
@@ -22279,7 +22281,7 @@
         <v>0.71021482499999999</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>36</v>
       </c>
@@ -22314,7 +22316,7 @@
         <v>0.52942815099999996</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>37</v>
       </c>
@@ -22349,7 +22351,7 @@
         <v>0.52059021800000005</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>38</v>
       </c>
@@ -22384,7 +22386,7 @@
         <v>0.717947314</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>39</v>
       </c>
@@ -22419,7 +22421,7 @@
         <v>0.50459827700000004</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>40</v>
       </c>
@@ -22454,7 +22456,7 @@
         <v>0.52106328000000002</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>41</v>
       </c>
@@ -22489,7 +22491,7 @@
         <v>0.67371749299999995</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>42</v>
       </c>
@@ -22524,7 +22526,7 @@
         <v>0.74345525599999995</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>43</v>
       </c>
@@ -22559,7 +22561,7 @@
         <v>0.76659105800000005</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>44</v>
       </c>
@@ -22594,7 +22596,7 @@
         <v>0.34284730400000002</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>45</v>
       </c>
@@ -22629,7 +22631,7 @@
         <v>0.54139406000000001</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>68</v>
       </c>
@@ -22664,7 +22666,7 @@
         <v>0.65495093500000001</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>69</v>
       </c>
@@ -22699,7 +22701,7 @@
         <v>0.14928711</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>70</v>
       </c>
@@ -22734,7 +22736,7 @@
         <v>0.14928711</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>71</v>
       </c>
@@ -22769,7 +22771,7 @@
         <v>0.14928711</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>72</v>
       </c>
@@ -22804,7 +22806,7 @@
         <v>0.14928711</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>69</v>
       </c>
@@ -22839,7 +22841,7 @@
         <v>0.190690849</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>70</v>
       </c>
@@ -22874,7 +22876,7 @@
         <v>0.190690849</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>71</v>
       </c>
@@ -22909,7 +22911,7 @@
         <v>0.190690849</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>72</v>
       </c>
@@ -22944,7 +22946,7 @@
         <v>0.190690849</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>69</v>
       </c>
@@ -22979,7 +22981,7 @@
         <v>0.20019590800000001</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>70</v>
       </c>
@@ -23014,7 +23016,7 @@
         <v>0.20019590800000001</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>71</v>
       </c>
@@ -23049,7 +23051,7 @@
         <v>0.20019590800000001</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>72</v>
       </c>
@@ -23084,7 +23086,7 @@
         <v>0.20019590800000001</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>69</v>
       </c>
@@ -23119,7 +23121,7 @@
         <v>0.18626820899999999</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>70</v>
       </c>
@@ -23154,7 +23156,7 @@
         <v>0.18626820899999999</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>71</v>
       </c>
@@ -23189,7 +23191,7 @@
         <v>0.18626820899999999</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>72</v>
       </c>
@@ -23224,7 +23226,7 @@
         <v>0.18626820899999999</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>69</v>
       </c>
@@ -23259,7 +23261,7 @@
         <v>0.20713673699999999</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>70</v>
       </c>
@@ -23294,7 +23296,7 @@
         <v>0.20713673699999999</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>71</v>
       </c>
@@ -23329,7 +23331,7 @@
         <v>0.20713673699999999</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>72</v>
       </c>
@@ -23364,7 +23366,7 @@
         <v>0.20713673699999999</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>69</v>
       </c>
@@ -23399,7 +23401,7 @@
         <v>0.17895054399999999</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>70</v>
       </c>
@@ -23434,7 +23436,7 @@
         <v>0.17895054399999999</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>71</v>
       </c>
@@ -23469,7 +23471,7 @@
         <v>0.17895054399999999</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>72</v>
       </c>
@@ -23504,7 +23506,7 @@
         <v>0.17895054399999999</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>69</v>
       </c>
@@ -23539,7 +23541,7 @@
         <v>0.16664714</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>70</v>
       </c>
@@ -23574,7 +23576,7 @@
         <v>0.16664714</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>71</v>
       </c>
@@ -23609,7 +23611,7 @@
         <v>0.16664714</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>72</v>
       </c>
@@ -23644,7 +23646,7 @@
         <v>0.16664714</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>69</v>
       </c>
@@ -23679,7 +23681,7 @@
         <v>0.17007892899999999</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>70</v>
       </c>
@@ -23714,7 +23716,7 @@
         <v>0.17007892899999999</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>71</v>
       </c>
@@ -23749,7 +23751,7 @@
         <v>0.17007892899999999</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>72</v>
       </c>
@@ -23924,7 +23926,7 @@
         <v>0.19054206700000001</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>69</v>
       </c>
@@ -23959,7 +23961,7 @@
         <v>0.23963574300000001</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>70</v>
       </c>
@@ -23994,7 +23996,7 @@
         <v>0.23963574300000001</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>71</v>
       </c>
@@ -24029,7 +24031,7 @@
         <v>0.23963574300000001</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>72</v>
       </c>
@@ -24064,7 +24066,7 @@
         <v>0.23963574300000001</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>69</v>
       </c>
@@ -24099,7 +24101,7 @@
         <v>0.273141203</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>70</v>
       </c>
@@ -24134,7 +24136,7 @@
         <v>0.273141203</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>71</v>
       </c>
@@ -24169,7 +24171,7 @@
         <v>0.273141203</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>72</v>
       </c>
@@ -24204,7 +24206,7 @@
         <v>0.273141203</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>69</v>
       </c>
@@ -24239,7 +24241,7 @@
         <v>0.31574339699999998</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>70</v>
       </c>
@@ -24274,7 +24276,7 @@
         <v>0.31574339699999998</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>71</v>
       </c>
@@ -24309,7 +24311,7 @@
         <v>0.31574339699999998</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>72</v>
       </c>
@@ -24344,7 +24346,7 @@
         <v>0.31574339699999998</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>69</v>
       </c>
@@ -24379,7 +24381,7 @@
         <v>0.310398224</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>70</v>
       </c>
@@ -24414,7 +24416,7 @@
         <v>0.310398224</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>71</v>
       </c>
@@ -24449,7 +24451,7 @@
         <v>0.310398224</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>72</v>
       </c>
@@ -24484,7 +24486,7 @@
         <v>0.310398224</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>69</v>
       </c>
@@ -24519,7 +24521,7 @@
         <v>0.33485460299999997</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>70</v>
       </c>
@@ -24554,7 +24556,7 @@
         <v>0.33485460299999997</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>71</v>
       </c>
@@ -24589,7 +24591,7 @@
         <v>0.33485460299999997</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>72</v>
       </c>
@@ -24624,7 +24626,7 @@
         <v>0.33485460299999997</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>69</v>
       </c>
@@ -24659,7 +24661,7 @@
         <v>0.34284730400000002</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>70</v>
       </c>
@@ -24694,7 +24696,7 @@
         <v>0.34284730400000002</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>71</v>
       </c>
@@ -24729,7 +24731,7 @@
         <v>0.34284730400000002</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>72</v>
       </c>
@@ -24765,6 +24767,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K676">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2005"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
